--- a/src/test/resources/data/testdata.xlsx
+++ b/src/test/resources/data/testdata.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\workspace\craigsList\src\test\resources\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0BCE27-E926-4A85-8E10-F1999D980115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1950" windowWidth="19230" windowHeight="11385" activeTab="3" xr2:uid="{41F417B7-5F14-46CB-A4E6-5472507BA0DC}"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="9180" windowHeight="2295" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,10 @@
     <sheet name="posting" sheetId="2" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <oleSize ref="A7:F12"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -178,8 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -346,7 +341,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -540,21 +535,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058F49E3-37C5-4D6E-8AF2-C502AF8419AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
@@ -562,7 +557,7 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -587,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -598,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -609,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -620,12 +615,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -633,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -647,14 +642,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE469B4-5B85-467A-835F-5912D53F5218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -663,7 +658,7 @@
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -680,7 +675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -695,7 +690,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -710,7 +705,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -725,7 +720,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -740,7 +735,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -762,16 +757,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAE146F-DC82-4407-9218-826E7C4338A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -788,7 +783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -803,7 +798,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -818,7 +813,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -832,7 +827,7 @@
         <v>75067</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -846,7 +841,7 @@
         <v>75069</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -867,21 +862,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8D4B0A-282F-4349-AEBF-735C7A48E92A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -907,7 +902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -939,44 +934,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D27586-7160-4D0E-9B0F-47F3ACA2318E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -987,14 +982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5527A86-C044-4E8E-AEC8-67E1327A413F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -1008,7 +1003,7 @@
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1040,7 +1035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
